--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1521"/>
+  <dimension ref="A1:H1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42967,10 +42967,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -43001,10 +42999,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -43035,10 +43031,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -43065,10 +43059,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -43095,10 +43087,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -43125,10 +43115,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43151,10 +43139,8 @@
       <c r="E1319" t="inlineStr"/>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1320">
@@ -43185,10 +43171,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43219,10 +43203,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43253,10 +43235,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43287,10 +43267,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43321,10 +43299,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43351,10 +43327,8 @@
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43377,10 +43351,8 @@
       </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43407,10 +43379,8 @@
           <t>-27.2%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43437,10 +43407,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43459,10 +43427,8 @@
       <c r="E1329" t="inlineStr"/>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43489,10 +43455,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43519,10 +43483,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43541,10 +43503,8 @@
       <c r="E1332" t="inlineStr"/>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43585,10 +43545,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43615,10 +43573,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43649,10 +43605,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1337">
@@ -43683,10 +43637,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1338">
@@ -43717,10 +43669,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1339">
@@ -43751,10 +43701,8 @@
           <t>50.0K</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1340">
@@ -43785,10 +43733,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43819,10 +43765,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43853,10 +43797,8 @@
           <t>20K</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43883,10 +43825,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43913,10 +43853,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43943,10 +43881,8 @@
       </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43977,10 +43913,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -44011,10 +43945,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1348">
@@ -44045,10 +43977,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44071,10 +44001,8 @@
       <c r="E1349" t="inlineStr"/>
       <c r="F1349" t="inlineStr"/>
       <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44105,10 +44033,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1351">
@@ -44139,10 +44065,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44173,10 +44097,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1353">
@@ -44207,10 +44129,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1354">
@@ -44241,10 +44161,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44275,10 +44193,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44309,10 +44225,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44343,10 +44257,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44373,10 +44285,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44403,10 +44313,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44433,10 +44341,8 @@
       </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44463,10 +44369,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44497,10 +44401,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1363">
@@ -44531,10 +44433,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44579,10 +44479,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44613,10 +44511,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -44647,10 +44543,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1368">
@@ -44681,10 +44575,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44715,10 +44607,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44745,10 +44635,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44779,10 +44667,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44809,10 +44695,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44839,10 +44723,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44869,10 +44751,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44899,10 +44779,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44929,10 +44807,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44959,10 +44835,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44989,10 +44863,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -45019,10 +44891,8 @@
       </c>
       <c r="F1379" t="inlineStr"/>
       <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45049,10 +44919,8 @@
       </c>
       <c r="F1380" t="inlineStr"/>
       <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -45083,10 +44951,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45117,10 +44983,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45151,10 +45015,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45185,10 +45047,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45215,10 +45075,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45245,10 +45103,8 @@
       </c>
       <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45275,10 +45131,8 @@
       </c>
       <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45309,10 +45163,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45343,10 +45195,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45373,10 +45223,8 @@
       </c>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45407,10 +45255,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45441,10 +45287,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45475,10 +45319,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1394">
@@ -45509,10 +45351,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45535,10 +45375,8 @@
       <c r="E1395" t="inlineStr"/>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45569,10 +45407,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45595,10 +45431,8 @@
       <c r="E1397" t="inlineStr"/>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45625,10 +45459,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45655,10 +45487,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45699,10 +45529,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45733,10 +45561,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45767,10 +45593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45801,10 +45625,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45835,10 +45657,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45865,10 +45685,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45895,10 +45713,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45925,10 +45741,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45959,10 +45773,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -45993,10 +45805,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1411">
@@ -46027,10 +45837,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46053,10 +45861,8 @@
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46083,10 +45889,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46109,10 +45913,8 @@
       <c r="E1414" t="inlineStr"/>
       <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46135,10 +45937,8 @@
       <c r="E1415" t="inlineStr"/>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46165,10 +45965,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46199,10 +45997,8 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46233,10 +46029,8 @@
           <t>47.5%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1419">
@@ -46267,10 +46061,8 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46301,10 +46093,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46335,10 +46125,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46365,10 +46153,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46399,10 +46185,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46433,10 +46217,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46467,10 +46249,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -46501,10 +46281,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46535,10 +46313,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -46569,10 +46345,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -46595,10 +46369,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46629,10 +46401,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46659,10 +46429,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1432">
@@ -46689,10 +46457,8 @@
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46715,10 +46481,8 @@
       <c r="E1433" t="inlineStr"/>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -46749,10 +46513,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46779,10 +46541,8 @@
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46805,10 +46565,8 @@
       <c r="E1436" t="inlineStr"/>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46835,10 +46593,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46861,10 +46617,8 @@
       <c r="E1438" t="inlineStr"/>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -46887,10 +46641,8 @@
       <c r="E1439" t="inlineStr"/>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -46913,10 +46665,8 @@
       <c r="E1440" t="inlineStr"/>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -46939,10 +46689,8 @@
       <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -46965,10 +46713,8 @@
       <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46991,10 +46737,8 @@
       <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
       <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -47021,10 +46765,8 @@
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47051,10 +46793,8 @@
       </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47081,10 +46821,8 @@
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47111,10 +46849,8 @@
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47141,10 +46877,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47171,10 +46905,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47201,10 +46933,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -47235,10 +46965,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -47265,10 +46993,8 @@
       </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -47299,10 +47025,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1454">
@@ -47333,10 +47057,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1455">
@@ -47367,10 +47089,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -47401,10 +47121,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1457">
@@ -47435,10 +47153,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -47469,10 +47185,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -47503,10 +47217,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -47537,10 +47249,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -47571,10 +47281,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -47605,10 +47313,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1463">
@@ -47639,10 +47345,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -47673,10 +47377,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -47711,10 +47413,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1466">
@@ -47737,10 +47437,8 @@
       <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1467">
@@ -47767,10 +47465,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -47793,10 +47489,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -47823,52 +47517,70 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Economic Activity YoYNOV</t>
+        </is>
+      </c>
       <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47880,29 +47592,29 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -47914,199 +47626,199 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1478" t="inlineStr">
@@ -48118,369 +47830,353 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1479" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1480" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1481" t="inlineStr"/>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1482" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr"/>
+      <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr"/>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48492,55 +48188,39 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr"/>
+      <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="E1490" t="inlineStr"/>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1490" t="inlineStr"/>
+      <c r="H1490" t="inlineStr"/>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>116.8</t>
+        </is>
+      </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
@@ -48552,31 +48232,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48586,31 +48262,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48620,31 +48292,23 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48654,65 +48318,53 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
           <t>2</t>
@@ -48722,776 +48374,28 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1507" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr"/>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Coincident Index FinalNOV</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>Leading Economic Index FinalNOV</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>2-Year Bond Yield</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1484"/>
+  <dimension ref="A1:H1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39599,10 +39599,8 @@
       </c>
       <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1217">
@@ -40209,7 +40207,11 @@
           <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
-      <c r="D1233" t="inlineStr"/>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="E1233" t="inlineStr">
         <is>
           <t>11.5%</t>
@@ -40239,7 +40241,11 @@
           <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
-      <c r="D1234" t="inlineStr"/>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="E1234" t="inlineStr">
         <is>
           <t>11.5%</t>
@@ -40269,7 +40275,11 @@
           <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
-      <c r="D1235" t="inlineStr"/>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="E1235" t="inlineStr">
         <is>
           <t>$634.59B</t>
@@ -40965,7 +40975,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="F1256" t="inlineStr"/>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1256" t="inlineStr">
         <is>
           <t>3.1%</t>
@@ -40999,7 +41013,11 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="F1257" t="inlineStr"/>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G1257" t="inlineStr">
         <is>
           <t>3.6%</t>
@@ -41139,7 +41157,11 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1261" t="inlineStr"/>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1261" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -41943,12 +41965,12 @@
       <c r="A1288" t="inlineStr"/>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inauguration Day</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
@@ -41962,48 +41984,40 @@
       </c>
     </row>
     <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
+      <c r="A1289" t="inlineStr"/>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
       <c r="D1289" t="inlineStr"/>
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr"/>
+      <c r="C1290" t="inlineStr"/>
       <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
+      <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1290" t="inlineStr"/>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
@@ -42018,13 +42032,13 @@
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr"/>
@@ -42038,34 +42052,30 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
+      <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42077,29 +42087,29 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42116,24 +42126,24 @@
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42150,19 +42160,19 @@
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>50.0K</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1295" t="inlineStr">
@@ -42184,24 +42194,24 @@
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>50.0K</t>
         </is>
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42218,19 +42228,19 @@
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr"/>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1297" t="inlineStr">
@@ -42252,19 +42262,19 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr"/>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="H1298" t="inlineStr">
@@ -42276,27 +42286,31 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
+      <c r="G1299" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1299" t="inlineStr">
         <is>
           <t>3</t>
@@ -42316,17 +42330,21 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
       <c r="H1300" t="inlineStr">
         <is>
           <t>3</t>
@@ -42346,17 +42364,21 @@
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H1301" t="inlineStr">
         <is>
           <t>3</t>
@@ -42366,34 +42388,34 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42405,7 +42427,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -42416,22 +42438,18 @@
       <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1303" t="inlineStr">
-        <is>
-          <t>15.4</t>
-        </is>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42448,35 +42466,35 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>-93</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="G1304" t="inlineStr">
         <is>
-          <t>-94</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
@@ -42486,17 +42504,25 @@
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>10-Year Bund/g Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>-93</t>
+        </is>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>-94</t>
+        </is>
+      </c>
       <c r="H1305" t="inlineStr">
         <is>
           <t>3</t>
@@ -42516,13 +42542,13 @@
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>5-Year Bund/g Auction</t>
+          <t>10-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>2.02%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr"/>
@@ -42536,31 +42562,27 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>5-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr"/>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.02%</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1307" t="inlineStr"/>
       <c r="H1307" t="inlineStr">
         <is>
           <t>3</t>
@@ -42580,19 +42602,19 @@
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr"/>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1308" t="inlineStr"/>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1308" t="inlineStr">
@@ -42604,34 +42626,34 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42648,24 +42670,24 @@
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42682,19 +42704,19 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr"/>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
@@ -42716,13 +42738,13 @@
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1312" t="inlineStr"/>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1312" t="inlineStr"/>
@@ -42733,7 +42755,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42750,19 +42772,19 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr"/>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1313" t="inlineStr">
@@ -42784,19 +42806,19 @@
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr"/>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1314" t="inlineStr">
@@ -42808,27 +42830,31 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1315" t="inlineStr"/>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H1315" t="inlineStr">
         <is>
           <t>3</t>
@@ -42838,7 +42864,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
@@ -42848,13 +42874,13 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr"/>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1316" t="inlineStr"/>
@@ -42878,13 +42904,13 @@
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr"/>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1317" t="inlineStr"/>
@@ -42908,13 +42934,13 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr"/>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="F1318" t="inlineStr"/>
@@ -42928,150 +42954,146 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1319" t="inlineStr"/>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1319" t="inlineStr"/>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr"/>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr"/>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Westpac Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
+      <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E1322" t="inlineStr"/>
       <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1322" t="inlineStr"/>
+      <c r="H1322" t="inlineStr"/>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr"/>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr"/>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -43088,19 +43110,19 @@
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr"/>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1324" t="inlineStr">
@@ -43122,24 +43144,24 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr"/>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43156,19 +43178,19 @@
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr"/>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1326" t="inlineStr">
@@ -43180,27 +43202,31 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>2.64%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1327" t="inlineStr">
         <is>
           <t>3</t>
@@ -43210,31 +43236,27 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1328" t="inlineStr"/>
       <c r="H1328" t="inlineStr">
         <is>
           <t>3</t>
@@ -43254,17 +43276,21 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr"/>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1329" t="inlineStr">
         <is>
           <t>3</t>
@@ -43274,27 +43300,31 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr"/>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>2.639%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H1330" t="inlineStr">
         <is>
           <t>3</t>
@@ -43314,13 +43344,13 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr"/>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>2.541%</t>
+          <t>2.639%</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr"/>
@@ -43334,23 +43364,23 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr"/>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>2.541%</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr"/>
@@ -43364,30 +43394,30 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr"/>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -43404,20 +43434,20 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr"/>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -43434,13 +43464,13 @@
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr"/>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F1335" t="inlineStr"/>
@@ -43464,13 +43494,13 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr"/>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr"/>
@@ -43494,13 +43524,13 @@
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr"/>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr"/>
@@ -43514,31 +43544,27 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr"/>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1338" t="inlineStr"/>
       <c r="H1338" t="inlineStr">
         <is>
           <t>3</t>
@@ -43558,19 +43584,19 @@
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr"/>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1339" t="inlineStr">
@@ -43592,19 +43618,19 @@
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr"/>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1340" t="inlineStr">
@@ -43626,19 +43652,19 @@
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr"/>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1341" t="inlineStr">
@@ -43650,27 +43676,31 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr"/>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1342" t="inlineStr">
         <is>
           <t>3</t>
@@ -43680,7 +43710,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -43690,16 +43720,20 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr"/>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="F1343" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1343" t="inlineStr"/>
       <c r="H1343" t="inlineStr">
         <is>
@@ -43710,7 +43744,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -43720,13 +43754,13 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr"/>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1344" t="inlineStr"/>
@@ -43740,31 +43774,27 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr"/>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.686%</t>
         </is>
       </c>
       <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1345" t="inlineStr"/>
       <c r="H1345" t="inlineStr">
         <is>
           <t>3</t>
@@ -43774,61 +43804,65 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr"/>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr"/>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1347" t="inlineStr">
         <is>
           <t>2</t>
@@ -43838,31 +43872,27 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr"/>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1348" t="inlineStr"/>
       <c r="H1348" t="inlineStr">
         <is>
           <t>2</t>
@@ -43882,62 +43912,58 @@
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr"/>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr"/>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr"/>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1350" t="inlineStr">
-        <is>
-          <t>¥-53B</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -43954,28 +43980,28 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr"/>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>¥-53B</t>
         </is>
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -43992,20 +44018,28 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr"/>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
-        </is>
-      </c>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1352" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G1352" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44022,25 +44056,17 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr"/>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1353" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1353" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+          <t>¥756.7B</t>
+        </is>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="inlineStr"/>
       <c r="H1353" t="inlineStr">
         <is>
           <t>3</t>
@@ -44060,17 +44086,25 @@
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr"/>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
-        </is>
-      </c>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1354" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G1354" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H1354" t="inlineStr">
         <is>
           <t>3</t>
@@ -44080,23 +44114,23 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr"/>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>¥313.3B</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr"/>
@@ -44110,23 +44144,23 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr"/>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>0.3544%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr"/>
@@ -44140,46 +44174,46 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
+          <t>10:35 PM</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>0.3544%</t>
+        </is>
+      </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr"/>
+      <c r="C1358" t="inlineStr"/>
       <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
+      <c r="E1358" t="inlineStr"/>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1358" t="inlineStr"/>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
@@ -44194,21 +44228,17 @@
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr"/>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1359" t="inlineStr"/>
       <c r="H1359" t="inlineStr">
         <is>
           <t>3</t>
@@ -44228,19 +44258,19 @@
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1360" t="inlineStr"/>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1360" t="inlineStr">
@@ -44262,19 +44292,19 @@
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr"/>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1361" t="inlineStr">
@@ -44286,29 +44316,29 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr"/>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1362" t="inlineStr">
@@ -44330,17 +44360,21 @@
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr"/>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
+      <c r="G1363" t="inlineStr">
+        <is>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
       <c r="H1363" t="inlineStr">
         <is>
           <t>3</t>
@@ -44360,13 +44394,13 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr"/>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr"/>
@@ -44380,23 +44414,23 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr"/>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1365" t="inlineStr"/>
@@ -44415,58 +44449,58 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr"/>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr"/>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1367" t="inlineStr">
@@ -44488,31 +44522,31 @@
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr"/>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
@@ -44522,13 +44556,21 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
       <c r="H1369" t="inlineStr">
         <is>
           <t>3</t>
@@ -44543,20 +44585,16 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1370" t="inlineStr"/>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
       <c r="H1370" t="inlineStr">
@@ -44568,21 +44606,25 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
       <c r="H1371" t="inlineStr">
@@ -44604,7 +44646,7 @@
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr"/>
@@ -44625,20 +44667,16 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1373" t="inlineStr"/>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
       <c r="H1373" t="inlineStr">
@@ -44655,29 +44693,29 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr"/>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>23.0%</t>
         </is>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -44694,23 +44732,19 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr"/>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1375" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="H1375" t="inlineStr">
@@ -44732,24 +44766,28 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr"/>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1376" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44761,29 +44799,29 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr"/>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -44800,19 +44838,19 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr"/>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1378" t="inlineStr">
@@ -44824,61 +44862,61 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr"/>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1380" t="inlineStr"/>
       <c r="H1380" t="inlineStr">
         <is>
           <t>3</t>
@@ -44898,19 +44936,19 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr"/>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1381" t="inlineStr">
@@ -44932,19 +44970,19 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1382" t="inlineStr">
@@ -44966,19 +45004,19 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr"/>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1383" t="inlineStr">
@@ -44990,34 +45028,34 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr"/>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45034,19 +45072,19 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1385" t="inlineStr">
@@ -45068,13 +45106,21 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1386" t="inlineStr">
         <is>
           <t>2</t>
@@ -45094,24 +45140,16 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1387" t="inlineStr"/>
       <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1387" t="inlineStr"/>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45123,25 +45161,29 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45158,20 +45200,20 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45188,11 +45230,15 @@
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>1859K</t>
+        </is>
+      </c>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
       <c r="H1390" t="inlineStr">
@@ -45204,75 +45250,71 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1391" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1392" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1392" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -45282,20 +45324,20 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr"/>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45312,13 +45354,13 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr"/>
@@ -45342,20 +45384,20 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45372,13 +45414,13 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr"/>
@@ -45402,13 +45444,13 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr"/>
@@ -45432,13 +45474,13 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr"/>
@@ -45462,13 +45504,13 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr"/>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1399" t="inlineStr"/>
@@ -45492,13 +45534,13 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr"/>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr"/>
@@ -45522,13 +45564,13 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr"/>
@@ -45542,7 +45584,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -45552,13 +45594,13 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr"/>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr"/>
@@ -45582,13 +45624,13 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr"/>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr"/>
@@ -45602,23 +45644,23 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1404" t="inlineStr"/>
@@ -45637,18 +45679,18 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr"/>
@@ -45672,13 +45714,13 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr"/>
@@ -45692,7 +45734,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -45702,13 +45744,13 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr"/>
@@ -45722,31 +45764,27 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1408" t="inlineStr"/>
       <c r="H1408" t="inlineStr">
         <is>
           <t>3</t>
@@ -45756,27 +45794,31 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
+      <c r="G1409" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -45786,34 +45828,30 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="G1410" t="inlineStr"/>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45830,19 +45868,19 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1411" t="inlineStr">
@@ -45864,58 +45902,58 @@
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr"/>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45932,28 +45970,24 @@
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -45970,24 +46004,28 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1415" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1415" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46004,19 +46042,19 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1416" t="inlineStr">
@@ -46028,68 +46066,68 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46106,19 +46144,19 @@
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1419" t="inlineStr">
@@ -46140,24 +46178,24 @@
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46169,24 +46207,24 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1421" t="inlineStr">
@@ -46198,38 +46236,34 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1422" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46246,65 +46280,77 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1423" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1423" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr">
-        <is>
-          <t>18.55%</t>
-        </is>
-      </c>
+      <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1425">
-      <c r="A1425" t="inlineStr"/>
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1425" t="inlineStr"/>
@@ -46319,79 +46365,71 @@
       <c r="A1426" t="inlineStr"/>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr"/>
       <c r="E1426" t="inlineStr">
         <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="inlineStr"/>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr"/>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>Federal Tax RevenuesDEC</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr"/>
+      <c r="E1427" t="inlineStr">
+        <is>
           <t>BRL209.2B</t>
         </is>
       </c>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="inlineStr">
         <is>
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
+      <c r="H1427" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr"/>
+      <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
+      <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1428" t="inlineStr"/>
+      <c r="H1428" t="inlineStr"/>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
@@ -46406,19 +46444,19 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1429" t="inlineStr">
@@ -46440,19 +46478,19 @@
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
@@ -46469,29 +46507,29 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46508,19 +46546,19 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
@@ -46532,29 +46570,29 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
@@ -46566,34 +46604,34 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46610,19 +46648,19 @@
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46644,62 +46682,58 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46716,24 +46750,28 @@
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46750,23 +46788,19 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46778,29 +46812,33 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46822,23 +46860,19 @@
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46860,23 +46894,23 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -46888,34 +46922,38 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1443" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46932,19 +46970,19 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -46966,53 +47004,53 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47029,86 +47067,90 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
+      <c r="G1448" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47123,24 +47165,24 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
@@ -47162,19 +47204,19 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47186,34 +47228,34 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47230,19 +47272,19 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
@@ -47264,58 +47306,58 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47332,19 +47374,19 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
@@ -47366,19 +47408,19 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
@@ -47390,7 +47432,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
@@ -47400,28 +47442,24 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47438,24 +47476,28 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1459" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47472,23 +47514,19 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
@@ -47510,28 +47548,28 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47548,23 +47586,23 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -47586,23 +47624,23 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -47624,23 +47662,23 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47652,7 +47690,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -47662,19 +47700,23 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47696,19 +47738,19 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47720,7 +47762,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -47730,13 +47772,21 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47756,7 +47806,7 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
@@ -47772,94 +47822,90 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr">
-        <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr"/>
+      <c r="C1470" t="inlineStr"/>
       <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1470" t="inlineStr"/>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
+      <c r="H1470" t="inlineStr"/>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>Industrial Profits (YTD) YoYDEC</t>
+        </is>
+      </c>
       <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1472" t="inlineStr">
-        <is>
-          <t>Coincident Index FinalNOV</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr"/>
+      <c r="C1472" t="inlineStr"/>
       <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1472" t="inlineStr"/>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1472" t="inlineStr"/>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
@@ -47874,13 +47920,13 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>109.1</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
@@ -47899,18 +47945,18 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
@@ -47934,11 +47980,15 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
@@ -47960,7 +48010,7 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
@@ -47976,30 +48026,26 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48016,50 +48062,50 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48076,20 +48122,20 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48106,13 +48152,13 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
@@ -48126,21 +48172,25 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48152,34 +48202,26 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48196,24 +48238,152 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr">
         <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>Jobseekers TotalDEC</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr"/>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
+      <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI MoMJAN</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI YoYJAN</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr"/>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr"/>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>$ 3.9B</t>
+        </is>
+      </c>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1504"/>
+  <dimension ref="A1:H1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40567,10 +40567,14 @@
           <t>Industrial Production MoMDEC</t>
         </is>
       </c>
-      <c r="D1243" t="inlineStr"/>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr">
@@ -40605,10 +40609,14 @@
           <t>Capacity UtilizationDEC</t>
         </is>
       </c>
-      <c r="D1244" t="inlineStr"/>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr">
@@ -40643,10 +40651,14 @@
           <t>Industrial Production YoYDEC</t>
         </is>
       </c>
-      <c r="D1245" t="inlineStr"/>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
@@ -40677,10 +40689,14 @@
           <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
-      <c r="D1246" t="inlineStr"/>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr">
@@ -40715,10 +40731,14 @@
           <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
-      <c r="D1247" t="inlineStr"/>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
@@ -41319,7 +41339,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1266" t="inlineStr">
         <is>
           <t>1%</t>
@@ -42159,7 +42183,11 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="F1294" t="inlineStr"/>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1294" t="inlineStr">
         <is>
           <t>4.3%</t>
@@ -42193,10 +42221,14 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H1295" t="inlineStr">
@@ -42230,7 +42262,7 @@
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>50.0K</t>
+          <t>40.0K</t>
         </is>
       </c>
       <c r="H1296" t="inlineStr">
@@ -42261,10 +42293,14 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="H1297" t="inlineStr">
@@ -42295,10 +42331,14 @@
           <t>0.3K</t>
         </is>
       </c>
-      <c r="F1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>10.3K</t>
+        </is>
+      </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>15.0K</t>
         </is>
       </c>
       <c r="H1298" t="inlineStr">
@@ -42332,7 +42372,7 @@
       <c r="F1299" t="inlineStr"/>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="H1299" t="inlineStr">
@@ -42465,7 +42505,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="F1303" t="inlineStr"/>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>16.9</t>
+        </is>
+      </c>
       <c r="G1303" t="inlineStr">
         <is>
           <t>16</t>
@@ -42501,7 +42545,7 @@
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="G1304" t="inlineStr">
@@ -42703,7 +42747,11 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="F1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="G1310" t="inlineStr">
         <is>
           <t>1.8%</t>
@@ -42740,7 +42788,7 @@
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
@@ -42771,10 +42819,14 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="F1312" t="inlineStr"/>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H1312" t="inlineStr">
@@ -42839,10 +42891,14 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F1314" t="inlineStr"/>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1314" t="inlineStr">
@@ -42873,10 +42929,14 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="F1315" t="inlineStr"/>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1315" t="inlineStr">
@@ -43109,7 +43169,11 @@
           <t>£-11.25B</t>
         </is>
       </c>
-      <c r="F1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>£ -14.3B</t>
+        </is>
+      </c>
       <c r="G1323" t="inlineStr">
         <is>
           <t>£ -11.3B</t>
@@ -44079,7 +44143,7 @@
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>¥-53B</t>
+          <t>¥-55B</t>
         </is>
       </c>
       <c r="G1353" t="inlineStr">
@@ -44619,7 +44683,11 @@
           <t>97</t>
         </is>
       </c>
-      <c r="F1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="G1370" t="inlineStr">
         <is>
           <t>96</t>
@@ -45107,7 +45175,11 @@
           <t>-40</t>
         </is>
       </c>
-      <c r="F1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1386" t="inlineStr">
         <is>
           <t>-25</t>
@@ -45307,7 +45379,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1392" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -45341,7 +45417,11 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="F1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1393" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -45435,7 +45515,11 @@
           <t>217K</t>
         </is>
       </c>
-      <c r="F1396" t="inlineStr"/>
+      <c r="F1396" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
       <c r="G1396" t="inlineStr">
         <is>
           <t>219K</t>
@@ -46361,7 +46445,11 @@
           <t>-17</t>
         </is>
       </c>
-      <c r="F1425" t="inlineStr"/>
+      <c r="F1425" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
       <c r="G1425" t="inlineStr">
         <is>
           <t>-23</t>
@@ -46395,7 +46483,11 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="F1426" t="inlineStr"/>
+      <c r="F1426" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="G1426" t="inlineStr">
         <is>
           <t>49.9</t>
@@ -46899,7 +46991,11 @@
           <t>41.9</t>
         </is>
       </c>
-      <c r="F1442" t="inlineStr"/>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
           <t>42.2</t>
@@ -46933,7 +47029,11 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="F1443" t="inlineStr"/>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
           <t>49.5</t>
@@ -47221,7 +47321,11 @@
           <t>47</t>
         </is>
       </c>
-      <c r="F1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
       <c r="G1451" t="inlineStr">
         <is>
           <t>47.2</t>
@@ -47255,7 +47359,11 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="F1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="G1452" t="inlineStr">
         <is>
           <t>51</t>
@@ -47383,7 +47491,11 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="F1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1456" t="inlineStr">
         <is>
           <t>-11</t>
@@ -47549,7 +47661,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1461" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -48836,7 +48952,11 @@
       </c>
     </row>
     <row r="1503">
-      <c r="A1503" t="inlineStr"/>
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B1503" t="inlineStr">
         <is>
           <t>US</t>
@@ -48844,58 +48964,110 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
+          <t>New Home SalesDEC</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr"/>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr"/>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr"/>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
+      <c r="D1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr">
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr"/>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr"/>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr">
+      <c r="D1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1504" t="inlineStr">
+      <c r="F1506" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1504" t="inlineStr">
+      <c r="G1506" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -42860,7 +42860,7 @@
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1313" t="inlineStr">
@@ -43852,7 +43852,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H1344" t="inlineStr">
         <is>
           <t>3</t>
@@ -44601,58 +44605,62 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr"/>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr"/>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="F1369" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1369" t="inlineStr">
@@ -44674,35 +44682,31 @@
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr"/>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="F1370" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
@@ -44712,21 +44716,17 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr"/>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
+      <c r="G1371" t="inlineStr"/>
       <c r="H1371" t="inlineStr">
         <is>
           <t>3</t>
@@ -44746,13 +44746,13 @@
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr"/>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1372" t="inlineStr"/>
@@ -44776,11 +44776,15 @@
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
       <c r="H1373" t="inlineStr">
@@ -44797,18 +44801,18 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr"/>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr"/>
@@ -44822,23 +44826,23 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr"/>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr"/>
@@ -44862,11 +44866,15 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>1.13%</t>
+        </is>
+      </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
       <c r="H1376" t="inlineStr">
@@ -44888,11 +44896,15 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
       <c r="H1377" t="inlineStr">
@@ -44914,11 +44926,15 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
       <c r="H1378" t="inlineStr">
@@ -44935,18 +44951,26 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
       <c r="H1379" t="inlineStr">
         <is>
           <t>3</t>
@@ -44961,21 +44985,29 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -44987,29 +45019,33 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr"/>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F1381" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>23.0%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45026,24 +45062,24 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45055,28 +45091,24 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1383" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="F1383" t="inlineStr"/>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1383" t="inlineStr">
@@ -45093,128 +45125,128 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1384" t="inlineStr"/>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="F1384" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>46.5%</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
+      <c r="G1385" t="inlineStr"/>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1387" t="inlineStr">
         <is>
           <t>3</t>
@@ -45234,19 +45266,19 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1388" t="inlineStr">
@@ -45268,19 +45300,19 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1389" t="inlineStr">
@@ -45292,68 +45324,76 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F1391" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45370,25 +45410,13 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1392" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
       <c r="H1392" t="inlineStr">
         <is>
           <t>2</t>
@@ -45408,28 +45436,24 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45441,18 +45465,30 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F1394" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
+      <c r="G1394" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="H1394" t="inlineStr">
         <is>
           <t>2</t>
@@ -45467,24 +45503,24 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1861K</t>
         </is>
       </c>
       <c r="H1395" t="inlineStr">
@@ -45506,69 +45542,69 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
+          <t>212.75K</t>
+        </is>
+      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>213.0K</t>
         </is>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>1859K</t>
-        </is>
-      </c>
-      <c r="F1397" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1397" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>1861K</t>
+          <t>-14.7</t>
         </is>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
@@ -45578,21 +45614,17 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr">
-        <is>
-          <t>213.0K</t>
-        </is>
-      </c>
+      <c r="G1398" t="inlineStr"/>
       <c r="H1398" t="inlineStr">
         <is>
           <t>3</t>
@@ -45602,35 +45634,27 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr"/>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1399" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1399" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
+          <t>-1.961M</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="inlineStr"/>
       <c r="H1399" t="inlineStr">
         <is>
           <t>2</t>
@@ -45640,7 +45664,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -45650,20 +45674,20 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr"/>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45680,20 +45704,20 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45710,20 +45734,20 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr"/>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45740,13 +45764,13 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr"/>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr"/>
@@ -45770,13 +45794,13 @@
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1404" t="inlineStr"/>
@@ -45800,13 +45824,13 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr"/>
@@ -45830,13 +45854,13 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr"/>
@@ -45860,13 +45884,13 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr"/>
@@ -45880,7 +45904,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -45890,13 +45914,13 @@
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr"/>
@@ -45910,7 +45934,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
@@ -45920,13 +45944,13 @@
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1409" t="inlineStr"/>
@@ -45940,23 +45964,23 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr"/>
@@ -45970,7 +45994,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -45980,13 +46004,13 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1411" t="inlineStr"/>
@@ -46005,18 +46029,18 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1412" t="inlineStr"/>
@@ -46030,7 +46054,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -46040,13 +46064,13 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr"/>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1413" t="inlineStr"/>
@@ -46060,27 +46084,31 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
+      <c r="G1414" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1414" t="inlineStr">
         <is>
           <t>3</t>
@@ -46090,7 +46118,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
@@ -46100,13 +46128,13 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr"/>
@@ -46120,64 +46148,68 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46194,92 +46226,96 @@
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="F1420" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1420" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46296,24 +46332,24 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46330,69 +46366,69 @@
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1422" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1423" t="inlineStr"/>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F1423" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
@@ -46402,62 +46438,62 @@
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1424" t="inlineStr"/>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="F1424" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F1425" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46474,28 +46510,24 @@
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr"/>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="F1426" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46507,36 +46539,36 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr"/>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -46546,149 +46578,137 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr"/>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1428" t="inlineStr"/>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1428" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1429" t="inlineStr"/>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1430" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>18.55%</t>
+        </is>
+      </c>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="inlineStr"/>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A1431" t="inlineStr"/>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1432" t="inlineStr"/>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>BRL209.2B</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
+      <c r="G1432" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1432" t="inlineStr">
         <is>
           <t>3</t>
@@ -46696,74 +46716,86 @@
       </c>
     </row>
     <row r="1433">
-      <c r="A1433" t="inlineStr"/>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr"/>
+      <c r="C1433" t="inlineStr"/>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
+      <c r="E1433" t="inlineStr"/>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1433" t="inlineStr"/>
     </row>
     <row r="1434">
-      <c r="A1434" t="inlineStr"/>
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
+        </is>
+      </c>
       <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
       <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
+      <c r="G1435" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
@@ -46778,19 +46810,19 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46807,29 +46839,29 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46841,58 +46873,58 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46904,68 +46936,76 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1441" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46982,78 +47022,74 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
@@ -47064,18 +47100,18 @@
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47092,40 +47128,40 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -47136,13 +47172,13 @@
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47154,33 +47190,33 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47202,19 +47238,23 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -47226,76 +47266,76 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47312,95 +47352,79 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
@@ -47412,23 +47436,35 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1454" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
           <t>2</t>
@@ -47438,31 +47474,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47472,65 +47504,65 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47545,24 +47577,24 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
@@ -47574,68 +47606,72 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1459" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47652,57 +47688,53 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -47714,34 +47746,34 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47758,19 +47790,19 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47782,7 +47814,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -47792,31 +47824,35 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -47826,19 +47862,19 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47860,28 +47896,28 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47898,24 +47934,28 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47932,28 +47972,28 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47970,23 +48010,23 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -48008,23 +48048,23 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -48036,7 +48076,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -48046,23 +48086,19 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -48074,7 +48110,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
@@ -48084,23 +48120,19 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
@@ -48112,7 +48144,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
@@ -48122,21 +48154,13 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48146,7 +48170,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48156,21 +48180,13 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
         <is>
           <t>3</t>
@@ -48180,49 +48196,45 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1476" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr"/>
+      <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1476" t="inlineStr"/>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -48232,7 +48244,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
+          <t>Monday January 27 2025</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr"/>
@@ -48246,31 +48258,27 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -48280,16 +48288,32 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr"/>
-      <c r="C1480" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>Leading Economic Index FinalNOV</t>
+        </is>
+      </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr"/>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
@@ -48299,18 +48323,18 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
@@ -48329,20 +48353,16 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48364,15 +48384,11 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
@@ -48384,47 +48400,55 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>99.1</t>
+        </is>
+      </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>75.8%</t>
+        </is>
+      </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
@@ -48436,53 +48460,53 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
@@ -48506,45 +48530,41 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>85.1</t>
-        </is>
-      </c>
+      <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
@@ -48556,53 +48576,65 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>2875K</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48612,65 +48644,61 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48690,13 +48718,13 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
@@ -48715,59 +48743,63 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>$ 3.9B</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48779,63 +48811,63 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48847,26 +48879,18 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="E1499" t="inlineStr"/>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48886,7 +48910,7 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48912,7 +48936,7 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48928,17 +48952,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48947,7 +48971,7 @@
       <c r="G1502" t="inlineStr"/>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48964,13 +48988,17 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
           <t>2</t>
@@ -48980,7 +49008,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48990,17 +49018,17 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
         <is>
           <t>2</t>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1506"/>
+  <dimension ref="A1:H1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49036,7 +49036,11 @@
       </c>
     </row>
     <row r="1505">
-      <c r="A1505" t="inlineStr"/>
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B1505" t="inlineStr">
         <is>
           <t>US</t>
@@ -49044,58 +49048,106 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr"/>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr"/>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr"/>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr"/>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
+      <c r="D1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr"/>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr"/>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
+      <c r="D1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1506" t="inlineStr">
+      <c r="F1508" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1506" t="inlineStr">
+      <c r="G1508" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1508"/>
+  <dimension ref="A1:H1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40769,7 +40769,11 @@
           <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
-      <c r="D1248" t="inlineStr"/>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="E1248" t="inlineStr">
         <is>
           <t>480</t>
@@ -40799,7 +40803,11 @@
           <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
-      <c r="D1249" t="inlineStr"/>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="E1249" t="inlineStr">
         <is>
           <t>584</t>
@@ -48158,7 +48166,11 @@
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
@@ -48184,7 +48196,11 @@
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
@@ -49088,7 +49104,11 @@
       </c>
     </row>
     <row r="1507">
-      <c r="A1507" t="inlineStr"/>
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B1507" t="inlineStr">
         <is>
           <t>US</t>
@@ -49096,56 +49116,104 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr"/>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr"/>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="inlineStr"/>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr"/>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
+      <c r="D1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
+      <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr"/>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
+    <row r="1510">
+      <c r="A1510" t="inlineStr"/>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
+      <c r="D1510" t="inlineStr"/>
+      <c r="E1510" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1508" t="inlineStr">
+      <c r="F1510" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1508" t="inlineStr">
+      <c r="G1510" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1508" t="inlineStr">
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -40837,10 +40837,14 @@
           <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
-      <c r="D1250" t="inlineStr"/>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>$79B</t>
+        </is>
+      </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$159.1B</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr">
@@ -40871,10 +40875,14 @@
           <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
-      <c r="D1251" t="inlineStr"/>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>$-15.8B</t>
+        </is>
+      </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$92B</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr"/>
@@ -40901,10 +40909,14 @@
           <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
-      <c r="D1252" t="inlineStr"/>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>$159.9B</t>
+        </is>
+      </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$201.8B</t>
         </is>
       </c>
       <c r="F1252" t="inlineStr"/>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1510"/>
+  <dimension ref="A1:H1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49168,32 +49168,36 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49206,28 +49210,58 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr"/>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1510" t="inlineStr">
+      <c r="F1511" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1510" t="inlineStr">
+      <c r="G1511" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1511"/>
+  <dimension ref="A1:H1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49202,32 +49202,36 @@
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr"/>
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49240,28 +49244,58 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr"/>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1511" t="inlineStr">
+      <c r="F1512" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1511" t="inlineStr">
+      <c r="G1512" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
